--- a/Analisis Resultados/Python/Análisis_PythonCBC_CubeMaster_DiaP2.xlsx
+++ b/Analisis Resultados/Python/Análisis_PythonCBC_CubeMaster_DiaP2.xlsx
@@ -22,13 +22,13 @@
   <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="17" r:id="rId4"/>
-    <pivotCache cacheId="24" r:id="rId5"/>
+    <pivotCache cacheId="18" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
   <si>
     <t>Container</t>
   </si>
@@ -75,9 +75,6 @@
     <t>PALETS PLATAFORMA</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
     <t>Sum of Loaded2</t>
   </si>
   <si>
@@ -90,7 +87,7 @@
     <t>12238-SOLOMILLO 2 UN. VACIO</t>
   </si>
   <si>
-    <t>25.0</t>
+    <t>(blank)</t>
   </si>
 </sst>
 </file>
@@ -574,13 +571,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -666,7 +662,9 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="25"/>
     </cacheField>
     <cacheField name="Column #" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Customer Product Code" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -681,9 +679,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Federico Muñoz" refreshedDate="42511.435796990743" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Federico Muñoz" refreshedDate="42511.790085763889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A4:H7" sheet="CBC"/>
+    <worksheetSource ref="A4:H12" sheet="CBC"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Container" numFmtId="0">
@@ -692,13 +690,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Loaded" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
     </cacheField>
     <cacheField name="Vol. Effi." numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
     </cacheField>
     <cacheField name="Area Effi." numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="25"/>
     </cacheField>
     <cacheField name="SKU" numFmtId="0">
       <sharedItems count="1">
@@ -706,10 +704,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Loaded2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="4"/>
     </cacheField>
     <cacheField name="Column #" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="7"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="8">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Customer Product Code" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="999999" maxValue="999999"/>
@@ -732,42 +739,92 @@
     <n v="25.47304235"/>
     <s v="12238-SOLOMILLO 2 UN. VACIO"/>
     <n v="25"/>
-    <m/>
+    <x v="0"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="25.0"/>
-    <x v="0"/>
-    <n v="12"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="25"/>
+    <x v="0"/>
     <n v="3"/>
+    <x v="0"/>
     <n v="999999"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="25.0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="6"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="25"/>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="1"/>
     <n v="999999"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="25.0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="7"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="25"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="25"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="25"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="25"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="25"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="6"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="25"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="7"/>
     <n v="999999"/>
   </r>
 </pivotCacheRecords>
@@ -775,7 +832,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A2:B5" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A2:C5" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
@@ -792,14 +849,20 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="6"/>
   </rowFields>
   <rowItems count="2">
     <i>
+      <x/>
       <x/>
     </i>
     <i t="grand">
@@ -822,8 +885,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="F2:H5" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="F2:I12" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
@@ -844,17 +907,51 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="0"/>
     <field x="4"/>
+    <field x="6"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="9">
     <i>
       <x/>
       <x/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -1138,22 +1235,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H5"/>
+      <selection activeCell="F12" sqref="F12:I12"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" start="1" max="2" activeRow="4" activeCol="5" click="1" r:id="rId2">
+        <pivotArea dataOnly="0" grandRow="1" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.08984375" customWidth="1"/>
-    <col min="2" max="2" width="5.08984375" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="5.08984375" customWidth="1"/>
     <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.26953125" customWidth="1"/>
-    <col min="8" max="8" width="5.08984375" customWidth="1"/>
-    <col min="9" max="10" width="5.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="5.08984375" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1172,58 +1273,144 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="5">
-        <v>25</v>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>25</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
         <v>25</v>
       </c>
     </row>
@@ -1280,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -1294,7 +1481,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -1306,7 +1493,7 @@
         <v>25.47304235</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -1319,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1377,25 +1564,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>999999</v>
@@ -1403,25 +1590,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>999999</v>
@@ -1429,27 +1616,157 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
       <c r="F7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="H11">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
         <v>999999</v>
       </c>
     </row>
